--- a/data/ZIP_cube_HotnessZones.xlsx
+++ b/data/ZIP_cube_HotnessZones.xlsx
@@ -5,22 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgpih\Documents\Flatiron\Phase2\CourseLabsCloned\Project\dsc-phase-2-project\ScrapedData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rgpih\Documents\Flatiron\Phase2\Project\Phase2Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D7BC05-C771-428C-9E40-EE52FB7DB337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4581F2-5498-4951-9552-E95696E1CA73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31095" yWindow="2295" windowWidth="16230" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
   <si>
     <r>
       <rPr>
@@ -314,6 +325,9 @@
   </si>
   <si>
     <t>Auburn, WA</t>
+  </si>
+  <si>
+    <t>City</t>
   </si>
 </sst>
 </file>
@@ -1227,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E2" sqref="E2:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,11 +1252,11 @@
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>27</v>
       </c>
@@ -1255,8 +1269,11 @@
       <c r="D1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>98105</v>
       </c>
@@ -1269,8 +1286,12 @@
       <c r="D2" s="3">
         <v>97.08</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>LEFT(C2,(FIND(",",C2,1)-1))</f>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>98168</v>
       </c>
@@ -1283,8 +1304,12 @@
       <c r="D3" s="4">
         <v>95.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">LEFT(C3,(FIND(",",C3,1)-1))</f>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>98102</v>
       </c>
@@ -1297,8 +1322,12 @@
       <c r="D4" s="5">
         <v>93.99</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>98103</v>
       </c>
@@ -1311,8 +1340,12 @@
       <c r="D5" s="6">
         <v>93.87</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>98106</v>
       </c>
@@ -1325,8 +1358,12 @@
       <c r="D6" s="6">
         <v>93.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>98155</v>
       </c>
@@ -1339,8 +1376,12 @@
       <c r="D7" s="7">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>98121</v>
       </c>
@@ -1353,8 +1394,12 @@
       <c r="D8" s="8">
         <v>92.63</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>98109</v>
       </c>
@@ -1367,8 +1412,12 @@
       <c r="D9" s="8">
         <v>92.53</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>98148</v>
       </c>
@@ -1381,8 +1430,12 @@
       <c r="D10" s="9">
         <v>92.37</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>98178</v>
       </c>
@@ -1395,8 +1448,12 @@
       <c r="D11" s="9">
         <v>92.32</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>98146</v>
       </c>
@@ -1409,8 +1466,12 @@
       <c r="D12" s="9">
         <v>92.18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>98198</v>
       </c>
@@ -1423,8 +1484,12 @@
       <c r="D13" s="10">
         <v>92.07</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>98115</v>
       </c>
@@ -1437,8 +1502,12 @@
       <c r="D14" s="10">
         <v>92.06</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>98133</v>
       </c>
@@ -1451,8 +1520,12 @@
       <c r="D15" s="11">
         <v>91.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>98119</v>
       </c>
@@ -1465,8 +1538,12 @@
       <c r="D16" s="11">
         <v>91.73</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>98199</v>
       </c>
@@ -1479,8 +1556,12 @@
       <c r="D17" s="12">
         <v>91.38</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>98112</v>
       </c>
@@ -1493,8 +1574,12 @@
       <c r="D18" s="12">
         <v>91.35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>98107</v>
       </c>
@@ -1507,8 +1592,12 @@
       <c r="D19" s="13">
         <v>91.08</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>98122</v>
       </c>
@@ -1521,8 +1610,12 @@
       <c r="D20" s="14">
         <v>90.85</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>98116</v>
       </c>
@@ -1535,8 +1628,12 @@
       <c r="D21" s="14">
         <v>90.79</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>98008</v>
       </c>
@@ -1549,8 +1646,12 @@
       <c r="D22" s="14">
         <v>90.62</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Bellevue</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>98101</v>
       </c>
@@ -1563,8 +1664,12 @@
       <c r="D23" s="15">
         <v>90.29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>98136</v>
       </c>
@@ -1577,8 +1682,12 @@
       <c r="D24" s="16">
         <v>89.54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>98117</v>
       </c>
@@ -1591,8 +1700,12 @@
       <c r="D25" s="17">
         <v>89.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>98007</v>
       </c>
@@ -1605,8 +1718,12 @@
       <c r="D26" s="18">
         <v>88.67</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Bellevue</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>98125</v>
       </c>
@@ -1619,8 +1736,12 @@
       <c r="D27" s="19">
         <v>87.31</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>98188</v>
       </c>
@@ -1633,8 +1754,12 @@
       <c r="D28" s="20">
         <v>86.96</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>98126</v>
       </c>
@@ -1647,8 +1772,12 @@
       <c r="D29" s="21">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>98118</v>
       </c>
@@ -1661,8 +1790,12 @@
       <c r="D30" s="22">
         <v>86.27</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>98166</v>
       </c>
@@ -1675,8 +1808,12 @@
       <c r="D31" s="23">
         <v>85.01</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>98144</v>
       </c>
@@ -1689,8 +1826,12 @@
       <c r="D32" s="24">
         <v>84.74</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>98177</v>
       </c>
@@ -1703,8 +1844,12 @@
       <c r="D33" s="25">
         <v>84.41</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>98108</v>
       </c>
@@ -1717,8 +1862,12 @@
       <c r="D34" s="26">
         <v>84.13</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>98006</v>
       </c>
@@ -1731,8 +1880,12 @@
       <c r="D35" s="27">
         <v>83.72</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Bellevue</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>98027</v>
       </c>
@@ -1745,8 +1898,12 @@
       <c r="D36" s="28">
         <v>82.92</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Issaquah</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>98034</v>
       </c>
@@ -1759,8 +1916,12 @@
       <c r="D37" s="29">
         <v>82.34</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Kirkland</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>98038</v>
       </c>
@@ -1773,8 +1934,12 @@
       <c r="D38" s="30">
         <v>79.930000000000007</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Maple Valley</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>98055</v>
       </c>
@@ -1787,8 +1952,12 @@
       <c r="D39" s="31">
         <v>79.459999999999994</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Renton</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>98032</v>
       </c>
@@ -1801,8 +1970,12 @@
       <c r="D40" s="32">
         <v>78.89</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Kent</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>98052</v>
       </c>
@@ -1815,8 +1988,12 @@
       <c r="D41" s="33">
         <v>78.62</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Redmond</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>98029</v>
       </c>
@@ -1829,8 +2006,12 @@
       <c r="D42" s="34">
         <v>77.849999999999994</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Issaquah</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>98045</v>
       </c>
@@ -1843,8 +2024,12 @@
       <c r="D43" s="35">
         <v>76.66</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>North Bend</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>98058</v>
       </c>
@@ -1857,8 +2042,12 @@
       <c r="D44" s="36">
         <v>75.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Renton</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>98005</v>
       </c>
@@ -1871,8 +2060,12 @@
       <c r="D45" s="37">
         <v>75.66</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Bellevue</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>98002</v>
       </c>
@@ -1885,8 +2078,12 @@
       <c r="D46" s="38">
         <v>75.41</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Auburn</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>98053</v>
       </c>
@@ -1899,8 +2096,12 @@
       <c r="D47" s="38">
         <v>75.38</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Redmond</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>98057</v>
       </c>
@@ -1913,8 +2114,12 @@
       <c r="D48" s="39">
         <v>74.44</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Renton</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>98056</v>
       </c>
@@ -1927,8 +2132,12 @@
       <c r="D49" s="39">
         <v>74.34</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Renton</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>98059</v>
       </c>
@@ -1941,8 +2150,12 @@
       <c r="D50" s="40">
         <v>72.790000000000006</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Renton</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>98042</v>
       </c>
@@ -1955,8 +2168,12 @@
       <c r="D51" s="41">
         <v>72.58</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Kent</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>98065</v>
       </c>
@@ -1969,8 +2186,12 @@
       <c r="D52" s="42">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Snoqualmie</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>98422</v>
       </c>
@@ -1983,8 +2204,12 @@
       <c r="D53" s="43">
         <v>70.930000000000007</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Tacoma</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>98031</v>
       </c>
@@ -1997,8 +2222,12 @@
       <c r="D54" s="44">
         <v>70.48</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Kent</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>98033</v>
       </c>
@@ -2011,8 +2240,12 @@
       <c r="D55" s="45">
         <v>68.37</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Kirkland</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>98004</v>
       </c>
@@ -2025,8 +2258,12 @@
       <c r="D56" s="45">
         <v>68.319999999999993</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Bellevue</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>98003</v>
       </c>
@@ -2039,8 +2276,12 @@
       <c r="D57" s="45">
         <v>68.23</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Federal Way</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>98040</v>
       </c>
@@ -2053,8 +2294,12 @@
       <c r="D58" s="46">
         <v>67.709999999999994</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Mercer Island</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>98074</v>
       </c>
@@ -2067,8 +2312,12 @@
       <c r="D59" s="47">
         <v>66.430000000000007</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Sammamish</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>98001</v>
       </c>
@@ -2081,8 +2330,12 @@
       <c r="D60" s="47">
         <v>66.400000000000006</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>Auburn</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>98024</v>
       </c>
@@ -2095,8 +2348,12 @@
       <c r="D61" s="48">
         <v>64.650000000000006</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Fall City</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>98075</v>
       </c>
@@ -2109,8 +2366,12 @@
       <c r="D62" s="49">
         <v>64.150000000000006</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Sammamish</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>98039</v>
       </c>
@@ -2123,8 +2384,12 @@
       <c r="D63" s="50">
         <v>63.47</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Medina</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>98019</v>
       </c>
@@ -2137,8 +2402,12 @@
       <c r="D64" s="51">
         <v>62.73</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>Duvall</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>98030</v>
       </c>
@@ -2151,8 +2420,12 @@
       <c r="D65" s="52">
         <v>62.29</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>Kent</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>98070</v>
       </c>
@@ -2165,8 +2438,12 @@
       <c r="D66" s="53">
         <v>60.55</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>Vashon</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>98354</v>
       </c>
@@ -2179,8 +2456,12 @@
       <c r="D67" s="54">
         <v>60.18</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E78" si="1">LEFT(C67,(FIND(",",C67,1)-1))</f>
+        <v>Milton</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>98251</v>
       </c>
@@ -2193,8 +2474,12 @@
       <c r="D68" s="55">
         <v>59.77</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>Gold Bar</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>98010</v>
       </c>
@@ -2207,8 +2492,12 @@
       <c r="D69" s="56">
         <v>51.92</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>Black Diamond</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>98051</v>
       </c>
@@ -2221,8 +2510,12 @@
       <c r="D70" s="57">
         <v>49.75</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>Ravensdale</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>98014</v>
       </c>
@@ -2235,8 +2528,12 @@
       <c r="D71" s="58">
         <v>47.62</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>Carnation</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>98011</v>
       </c>
@@ -2249,8 +2546,12 @@
       <c r="D72">
         <v>76.03</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>Bothell</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>98022</v>
       </c>
@@ -2263,8 +2564,12 @@
       <c r="D73">
         <v>54.45</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>Enumclaw</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>98023</v>
       </c>
@@ -2277,8 +2582,12 @@
       <c r="D74" s="62">
         <v>78.89</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>Kent</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>98028</v>
       </c>
@@ -2291,8 +2600,12 @@
       <c r="D75">
         <v>66.17</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>Kenmore</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>98072</v>
       </c>
@@ -2305,8 +2618,12 @@
       <c r="D76">
         <v>81.56</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>Woodinville</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>98077</v>
       </c>
@@ -2319,8 +2636,12 @@
       <c r="D77">
         <v>70.62</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>Woodinville</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>98092</v>
       </c>
@@ -2332,6 +2653,10 @@
       </c>
       <c r="D78">
         <v>66.349999999999994</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>Auburn</v>
       </c>
     </row>
   </sheetData>
